--- a/dtpu_configurations/only_integer32/80mhz/mxu_10x10/timing.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/mxu_10x10/timing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Report</t>
   </si>
@@ -20,10 +20,13 @@
     <t>WNS</t>
   </si>
   <si>
+    <t>TNS</t>
+  </si>
+  <si>
     <t>WHS</t>
   </si>
   <si>
-    <t>impl_1, impl_1_route_report_timing_summary_0</t>
+    <t>retiming, retiming_route_report_timing_summary_0</t>
   </si>
 </sst>
 </file>
@@ -92,15 +95,16 @@
   <sheetPr>
     <outlinePr summaryBelow="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.40625" customWidth="true"/>
-    <col min="2" max="2" width="8.75" customWidth="true"/>
-    <col min="3" max="3" width="8.75" customWidth="true"/>
+    <col min="1" max="1" width="55.15625" customWidth="true"/>
+    <col min="2" max="2" width="9.375" customWidth="true"/>
+    <col min="3" max="3" width="10.625" customWidth="true"/>
+    <col min="4" max="4" width="8.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -113,16 +117,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.49974068999290466</v>
+        <v>-0.6784830689430237</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.011246337555348873</v>
+        <v>-19.62904930114746</v>
+      </c>
+      <c r="D2" t="n" s="4">
+        <v>0.00975053384900093</v>
       </c>
     </row>
   </sheetData>
